--- a/data/plot_statistics_sun.xlsx
+++ b/data/plot_statistics_sun.xlsx
@@ -389,16 +389,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5180652573704719</v>
+        <v>0.522576704621315</v>
       </c>
       <c r="C2">
-        <v>0.3642850275271843</v>
+        <v>0.1235938788107086</v>
       </c>
       <c r="D2">
-        <v>41.74143474262953</v>
+        <v>41.30442329537868</v>
       </c>
       <c r="E2">
-        <v>-0.001456080537295463</v>
+        <v>-0.0008737121894617913</v>
       </c>
     </row>
     <row r="3">
@@ -406,16 +406,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4756865903735161</v>
+        <v>0.4922490616639455</v>
       </c>
       <c r="C3">
-        <v>0.2167630876282259</v>
+        <v>0.1251503440493646</v>
       </c>
       <c r="D3">
-        <v>41.78381340962648</v>
+        <v>41.33475093833606</v>
       </c>
       <c r="E3">
-        <v>-0.001769386948030112</v>
+        <v>-0.00154317299907628</v>
       </c>
     </row>
     <row r="4">
@@ -423,16 +423,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2995915934443474</v>
+        <v>0.2982486436764399</v>
       </c>
       <c r="C4">
-        <v>0.3580343253696888</v>
+        <v>0.1882668237285719</v>
       </c>
       <c r="D4">
-        <v>41.95990840655566</v>
+        <v>41.52875135632356</v>
       </c>
       <c r="E4">
-        <v>-0.0009232571161189621</v>
+        <v>-0.000642969950225774</v>
       </c>
     </row>
     <row r="5">
@@ -440,16 +440,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2608487889170646</v>
+        <v>0.2567048549652099</v>
       </c>
       <c r="C5">
-        <v>0.4541979254439283</v>
+        <v>0.2517252346258006</v>
       </c>
       <c r="D5">
-        <v>41.99865121108294</v>
+        <v>41.57029514503479</v>
       </c>
       <c r="E5">
-        <v>-0.001329899983248375</v>
+        <v>-0.00094687254801235</v>
       </c>
     </row>
     <row r="6">
@@ -457,16 +457,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.118817625939846</v>
+        <v>0.1177107289433479</v>
       </c>
       <c r="C6">
-        <v>0.3390987276757964</v>
+        <v>0.1978225564024684</v>
       </c>
       <c r="D6">
-        <v>42.14068237406016</v>
+        <v>41.70928927105665</v>
       </c>
       <c r="E6">
-        <v>-0.0007628135701186047</v>
+        <v>-0.000557736158804284</v>
       </c>
     </row>
     <row r="7">
@@ -474,16 +474,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.158710428327322</v>
+        <v>0.1562627032399178</v>
       </c>
       <c r="C7">
-        <v>0.3933269826466353</v>
+        <v>0.2462734076134108</v>
       </c>
       <c r="D7">
-        <v>42.10078957167268</v>
+        <v>41.67073729676008</v>
       </c>
       <c r="E7">
-        <v>-0.0009390790066842322</v>
+        <v>-0.0007088600229704423</v>
       </c>
     </row>
     <row r="8">
@@ -491,16 +491,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2417047098278999</v>
+        <v>0.2416572441657384</v>
       </c>
       <c r="C8">
-        <v>0.4037773196153219</v>
+        <v>0.2651014062111537</v>
       </c>
       <c r="D8">
-        <v>42.0177952901721</v>
+        <v>41.58534275583426</v>
       </c>
       <c r="E8">
-        <v>-0.0008734747109366714</v>
+        <v>-0.0006823809468985318</v>
       </c>
     </row>
     <row r="9">
@@ -508,16 +508,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.08616190440952778</v>
+        <v>0.08310086590548356</v>
       </c>
       <c r="C9">
-        <v>0.4093127030689063</v>
+        <v>0.2115007199468227</v>
       </c>
       <c r="D9">
-        <v>42.17333809559047</v>
+        <v>41.74389913409452</v>
       </c>
       <c r="E9">
-        <v>-0.00087235046245409</v>
+        <v>-0.0006443764123144817</v>
       </c>
     </row>
     <row r="10">
@@ -525,16 +525,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.2483182959258556</v>
+        <v>0.2462240954240163</v>
       </c>
       <c r="C10">
-        <v>0.318182603181398</v>
+        <v>0.2222221284503538</v>
       </c>
       <c r="D10">
-        <v>42.01118170407415</v>
+        <v>41.58077590457599</v>
       </c>
       <c r="E10">
-        <v>-0.000754663803607688</v>
+        <v>-0.000618181379703601</v>
       </c>
     </row>
     <row r="11">
@@ -542,16 +542,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.4253516688942909</v>
+        <v>0.4239757130543391</v>
       </c>
       <c r="C11">
-        <v>0.3753254906152296</v>
+        <v>0.2967878855310273</v>
       </c>
       <c r="D11">
-        <v>41.83414833110571</v>
+        <v>41.40302428694566</v>
       </c>
       <c r="E11">
-        <v>-0.000874722449949666</v>
+        <v>-0.0007291978635129335</v>
       </c>
     </row>
     <row r="12">
@@ -559,16 +559,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.3318420574069023</v>
+        <v>0.3237212806940079</v>
       </c>
       <c r="C12">
-        <v>0.1477972000783677</v>
+        <v>0.05566313328680759</v>
       </c>
       <c r="D12">
-        <v>41.9276579425931</v>
+        <v>41.50327871930599</v>
       </c>
       <c r="E12">
-        <v>-0.0008546700426933174</v>
+        <v>-0.0005505492806875882</v>
       </c>
     </row>
     <row r="13">
@@ -576,16 +576,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.3380883991718292</v>
+        <v>0.3347901205221812</v>
       </c>
       <c r="C13">
-        <v>0.4654374109713275</v>
+        <v>0.3041314533170333</v>
       </c>
       <c r="D13">
-        <v>41.92141160082817</v>
+        <v>41.49220987947782</v>
       </c>
       <c r="E13">
-        <v>-0.001017050792116208</v>
+        <v>-0.0007798088910797416</v>
       </c>
     </row>
     <row r="14">
@@ -593,16 +593,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.3622637808322907</v>
+        <v>0.3636040260394414</v>
       </c>
       <c r="C14">
-        <v>0.4079582362548163</v>
+        <v>0.301113707040113</v>
       </c>
       <c r="D14">
-        <v>41.89723621916771</v>
+        <v>41.46339597396056</v>
       </c>
       <c r="E14">
-        <v>-0.001331652301139195</v>
+        <v>-0.0009806487975366834</v>
       </c>
     </row>
     <row r="15">
@@ -610,16 +610,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.3867023274302482</v>
+        <v>0.3908715049425761</v>
       </c>
       <c r="C15">
-        <v>0.3020507927707494</v>
+        <v>0.2316244023998126</v>
       </c>
       <c r="D15">
-        <v>41.87279767256975</v>
+        <v>41.43612849505742</v>
       </c>
       <c r="E15">
-        <v>-0.001235671475382942</v>
+        <v>-0.001050041756655235</v>
       </c>
     </row>
     <row r="16">
@@ -627,16 +627,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.2892097100615501</v>
+        <v>0.3202980071306228</v>
       </c>
       <c r="C16">
-        <v>0.3685258633809237</v>
+        <v>0.1870922354885525</v>
       </c>
       <c r="D16">
-        <v>41.97029028993845</v>
+        <v>41.50670199286937</v>
       </c>
       <c r="E16">
-        <v>-0.002348789677887919</v>
+        <v>-0.002926221522934869</v>
       </c>
     </row>
     <row r="17">
@@ -644,16 +644,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.3391566261649132</v>
+        <v>0.3369664887587229</v>
       </c>
       <c r="C17">
-        <v>0.4096179800271631</v>
+        <v>0.2831119333180779</v>
       </c>
       <c r="D17">
-        <v>41.92034337383509</v>
+        <v>41.49003351124128</v>
       </c>
       <c r="E17">
-        <v>-0.000752554856486846</v>
+        <v>-0.0005861696552867777</v>
       </c>
     </row>
     <row r="18">
@@ -661,16 +661,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.2707934863865376</v>
+        <v>0.270490596195062</v>
       </c>
       <c r="C18">
-        <v>0.3587933316720147</v>
+        <v>0.2955221605098824</v>
       </c>
       <c r="D18">
-        <v>41.98870651361347</v>
+        <v>41.55650940380494</v>
       </c>
       <c r="E18">
-        <v>-0.0009218033619472878</v>
+        <v>-0.0007482145470923566</v>
       </c>
     </row>
     <row r="19">
@@ -678,16 +678,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.6739251583814621</v>
+        <v>0.6775330146153767</v>
       </c>
       <c r="C19">
-        <v>0.02799371177327981</v>
+        <v>0.01764049209084634</v>
       </c>
       <c r="D19">
-        <v>41.58557484161854</v>
+        <v>41.14946698538462</v>
       </c>
       <c r="E19">
-        <v>-0.0004929809860906388</v>
+        <v>-0.0003655953932541647</v>
       </c>
     </row>
     <row r="20">
@@ -695,16 +695,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.6043150752782822</v>
+        <v>0.6115200777848562</v>
       </c>
       <c r="C20">
-        <v>0.07755047381791899</v>
+        <v>0.08356503591970361</v>
       </c>
       <c r="D20">
-        <v>41.65518492472172</v>
+        <v>41.21547992221515</v>
       </c>
       <c r="E20">
-        <v>-0.0007215656019185198</v>
+        <v>-0.000779920261365698</v>
       </c>
     </row>
     <row r="21">
@@ -712,16 +712,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.6782698929309845</v>
+        <v>0.684326171875</v>
       </c>
       <c r="C21">
-        <v>0.0473392871903513</v>
+        <v>0.05780483310509097</v>
       </c>
       <c r="D21">
-        <v>41.58123010706902</v>
+        <v>41.142673828125</v>
       </c>
       <c r="E21">
-        <v>-0.0006090194194616537</v>
+        <v>-0.0006587550120827306</v>
       </c>
     </row>
     <row r="22">
@@ -729,16 +729,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.4368997231125832</v>
+        <v>0.4362717886765798</v>
       </c>
       <c r="C22">
-        <v>0.1915522466044333</v>
+        <v>0.1717463398043019</v>
       </c>
       <c r="D22">
-        <v>41.82260027688741</v>
+        <v>41.39072821132342</v>
       </c>
       <c r="E22">
-        <v>-0.001157901348385129</v>
+        <v>-0.001018560571672149</v>
       </c>
     </row>
     <row r="23">
@@ -746,16 +746,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.6476787924766541</v>
+        <v>0.6506871283054352</v>
       </c>
       <c r="C23">
-        <v>0.1483939631734787</v>
+        <v>0.1741815739545228</v>
       </c>
       <c r="D23">
-        <v>41.61182120752335</v>
+        <v>41.17631287169456</v>
       </c>
       <c r="E23">
-        <v>-0.0009777797365023652</v>
+        <v>-0.001021627936845788</v>
       </c>
     </row>
     <row r="24">
@@ -763,16 +763,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.4168592914938927</v>
+        <v>0.4225405712922414</v>
       </c>
       <c r="C24">
-        <v>8.396653801775862e-05</v>
+        <v>0.0004041528000270135</v>
       </c>
       <c r="D24">
-        <v>41.84264070850611</v>
+        <v>41.40445942870776</v>
       </c>
       <c r="E24">
-        <v>2.076574685587485e-05</v>
+        <v>5.075021730031969e-05</v>
       </c>
     </row>
     <row r="25">
@@ -780,16 +780,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.3256578147411346</v>
+        <v>0.3290704339742661</v>
       </c>
       <c r="C25">
-        <v>0.1154745329036918</v>
+        <v>0.1240125237315366</v>
       </c>
       <c r="D25">
-        <v>41.93384218525887</v>
+        <v>41.49792956602573</v>
       </c>
       <c r="E25">
-        <v>-0.0007432877637540136</v>
+        <v>-0.0007304972283699899</v>
       </c>
     </row>
     <row r="26">
@@ -797,16 +797,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.9365988224744797</v>
+        <v>0.9439468105634053</v>
       </c>
       <c r="C26">
-        <v>0.0275949416872774</v>
+        <v>0.03406490528791981</v>
       </c>
       <c r="D26">
-        <v>41.32290117752552</v>
+        <v>40.88305318943659</v>
       </c>
       <c r="E26">
-        <v>-0.0004933041226095921</v>
+        <v>-0.000549957666503772</v>
       </c>
     </row>
     <row r="27">
@@ -814,16 +814,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.3220789566636085</v>
+        <v>0.3239003231128057</v>
       </c>
       <c r="C27">
-        <v>0.1929672519169529</v>
+        <v>0.1448150992232496</v>
       </c>
       <c r="D27">
-        <v>41.93742104333639</v>
+        <v>41.5030996768872</v>
       </c>
       <c r="E27">
-        <v>-0.0009414741715778498</v>
+        <v>-0.0007530231959432255</v>
       </c>
     </row>
     <row r="28">
@@ -831,16 +831,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.2535719878971577</v>
+        <v>0.2526972105105718</v>
       </c>
       <c r="C28">
-        <v>0.330903000382659</v>
+        <v>0.222692614241073</v>
       </c>
       <c r="D28">
-        <v>42.00592801210284</v>
+        <v>41.57430278948943</v>
       </c>
       <c r="E28">
-        <v>-0.001085150359499404</v>
+        <v>-0.000804042281642295</v>
       </c>
     </row>
     <row r="29">
@@ -848,16 +848,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.0321488537825644</v>
+        <v>0.03245616685599089</v>
       </c>
       <c r="C29">
-        <v>0.2371089252097078</v>
+        <v>0.1316702339752241</v>
       </c>
       <c r="D29">
-        <v>42.22735114621744</v>
+        <v>41.79454383314401</v>
       </c>
       <c r="E29">
-        <v>-0.0005947309373028336</v>
+        <v>-0.000434382785451248</v>
       </c>
     </row>
     <row r="30">
@@ -865,16 +865,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.3943919107317925</v>
+        <v>0.409217028816541</v>
       </c>
       <c r="C30">
-        <v>0.03599928122236903</v>
+        <v>0.03754946332651097</v>
       </c>
       <c r="D30">
-        <v>41.8651080892682</v>
+        <v>41.41778297118346</v>
       </c>
       <c r="E30">
-        <v>-0.0003837285120026932</v>
+        <v>-0.0005901485137358614</v>
       </c>
     </row>
     <row r="31">
@@ -882,16 +882,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.043134677410126</v>
+        <v>1.048414544264475</v>
       </c>
       <c r="C31">
-        <v>0.2617122827762687</v>
+        <v>0.2557733059866983</v>
       </c>
       <c r="D31">
-        <v>41.21636532258987</v>
+        <v>40.77858545573552</v>
       </c>
       <c r="E31">
-        <v>-0.001120563840801097</v>
+        <v>-0.001069411941536179</v>
       </c>
     </row>
     <row r="32">
@@ -899,16 +899,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.7433152765035629</v>
+        <v>0.7493983983993531</v>
       </c>
       <c r="C32">
-        <v>0.12344769124579</v>
+        <v>0.1142876431408839</v>
       </c>
       <c r="D32">
-        <v>41.51618472349644</v>
+        <v>41.07760160160065</v>
       </c>
       <c r="E32">
-        <v>-0.0005966597316458563</v>
+        <v>-0.0006158510904246712</v>
       </c>
     </row>
     <row r="33">
@@ -916,16 +916,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.133235824108124</v>
+        <v>1.136516733964284</v>
       </c>
       <c r="C33">
-        <v>0.2639794723738299</v>
+        <v>0.2694359685525416</v>
       </c>
       <c r="D33">
-        <v>41.12626417589188</v>
+        <v>40.69048326603571</v>
       </c>
       <c r="E33">
-        <v>-0.0008857856217235683</v>
+        <v>-0.0008537205709373115</v>
       </c>
     </row>
     <row r="34">
@@ -933,16 +933,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.707472488284111</v>
+        <v>0.7194132626056671</v>
       </c>
       <c r="C34">
-        <v>0.004707315800760134</v>
+        <v>0.0160555909952944</v>
       </c>
       <c r="D34">
-        <v>41.55202751171589</v>
+        <v>41.10758673739434</v>
       </c>
       <c r="E34">
-        <v>-0.000274756271805578</v>
+        <v>-0.0005293916713356549</v>
       </c>
     </row>
     <row r="35">
@@ -950,16 +950,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.4958171367645264</v>
+        <v>0.5024663060903549</v>
       </c>
       <c r="C35">
-        <v>0.01236290318490083</v>
+        <v>0.03095864492066044</v>
       </c>
       <c r="D35">
-        <v>41.76368286323547</v>
+        <v>41.32453369390964</v>
       </c>
       <c r="E35">
-        <v>-0.0002528761313245944</v>
+        <v>-0.0004614273031317021</v>
       </c>
     </row>
     <row r="36">
@@ -967,16 +967,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.076993584632874</v>
+        <v>1.066730326414108</v>
       </c>
       <c r="C36">
-        <v>0.003842920331647837</v>
+        <v>0.0001084359450653137</v>
       </c>
       <c r="D36">
-        <v>41.18250641536713</v>
+        <v>40.76026967358589</v>
       </c>
       <c r="E36">
-        <v>-0.0008366776278868576</v>
+        <v>-0.0001311853228633982</v>
       </c>
     </row>
     <row r="37">
@@ -984,16 +984,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.7464342325925827</v>
+        <v>0.7487069229284923</v>
       </c>
       <c r="C37">
-        <v>0.2616703984274043</v>
+        <v>0.2479031334295551</v>
       </c>
       <c r="D37">
-        <v>41.51306576740742</v>
+        <v>41.07829307707151</v>
       </c>
       <c r="E37">
-        <v>-0.001284818061662013</v>
+        <v>-0.001179135650167871</v>
       </c>
     </row>
     <row r="38">
@@ -1001,16 +1001,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.6851902872323989</v>
+        <v>0.6778026262919108</v>
       </c>
       <c r="C38">
-        <v>0.01010146900128754</v>
+        <v>0.001616157241541414</v>
       </c>
       <c r="D38">
-        <v>41.5743097127676</v>
+        <v>41.14919737370809</v>
       </c>
       <c r="E38">
-        <v>-0.0009506283570958803</v>
+        <v>-0.0003481190478674801</v>
       </c>
     </row>
     <row r="39">
@@ -1018,16 +1018,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.8532722920179368</v>
+        <v>0.8572649459044138</v>
       </c>
       <c r="C39">
-        <v>0.2950768073225949</v>
+        <v>0.24438159105237</v>
       </c>
       <c r="D39">
-        <v>41.40622770798206</v>
+        <v>40.96973505409559</v>
       </c>
       <c r="E39">
-        <v>-0.001905180804806981</v>
+        <v>-0.001568028397940614</v>
       </c>
     </row>
     <row r="40">
@@ -1035,16 +1035,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.6260049730539322</v>
+        <v>0.6255862593650818</v>
       </c>
       <c r="C40">
-        <v>0.2115192027445844</v>
+        <v>0.2098663826764508</v>
       </c>
       <c r="D40">
-        <v>41.63349502694606</v>
+        <v>41.20141374063492</v>
       </c>
       <c r="E40">
-        <v>-0.001074264017898809</v>
+        <v>-0.0009301729904774169</v>
       </c>
     </row>
     <row r="41">
@@ -1052,16 +1052,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.880397441983223</v>
+        <v>0.8861594378948212</v>
       </c>
       <c r="C41">
-        <v>0.1428596566665363</v>
+        <v>0.1153541723400451</v>
       </c>
       <c r="D41">
-        <v>41.37910255801678</v>
+        <v>40.94084056210518</v>
       </c>
       <c r="E41">
-        <v>-0.001524352004545407</v>
+        <v>-0.001248518321539212</v>
       </c>
     </row>
     <row r="42">
@@ -1069,16 +1069,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.8720692247152328</v>
+        <v>0.8767740269502003</v>
       </c>
       <c r="C42">
-        <v>0.03481262258821313</v>
+        <v>0.03216308296822205</v>
       </c>
       <c r="D42">
-        <v>41.38743077528477</v>
+        <v>40.9502259730498</v>
       </c>
       <c r="E42">
-        <v>-0.0006724630945673346</v>
+        <v>-0.0005817730980099089</v>
       </c>
     </row>
     <row r="43">
@@ -1086,16 +1086,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.8367452204227448</v>
+        <v>0.8492940982182821</v>
       </c>
       <c r="C43">
-        <v>0.004240140836579233</v>
+        <v>0.0130020728718489</v>
       </c>
       <c r="D43">
-        <v>41.42275477957725</v>
+        <v>40.97770590178172</v>
       </c>
       <c r="E43">
-        <v>-0.0005530540298363007</v>
+        <v>-0.000975100907901947</v>
       </c>
     </row>
     <row r="44">
@@ -1103,16 +1103,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.039977461099625</v>
+        <v>1.050191191832224</v>
       </c>
       <c r="C44">
-        <v>0.002506667494001808</v>
+        <v>0.001988072319582952</v>
       </c>
       <c r="D44">
-        <v>41.21952253890038</v>
+        <v>40.77680880816777</v>
       </c>
       <c r="E44">
-        <v>-0.0007304832813816893</v>
+        <v>-0.000590732700035861</v>
       </c>
     </row>
     <row r="45">
@@ -1120,16 +1120,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.8458613216876983</v>
+        <v>0.8497545103232066</v>
       </c>
       <c r="C45">
-        <v>0.0004048767206360805</v>
+        <v>0.0006383203187072234</v>
       </c>
       <c r="D45">
-        <v>41.4136386783123</v>
+        <v>40.97724548967679</v>
       </c>
       <c r="E45">
-        <v>0.0003110438135692789</v>
+        <v>0.0003842739282471684</v>
       </c>
     </row>
     <row r="46">
@@ -1137,16 +1137,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.8817157834768294</v>
+        <v>0.8975720067818959</v>
       </c>
       <c r="C46">
-        <v>0.01874194251009951</v>
+        <v>0.0089049857441716</v>
       </c>
       <c r="D46">
-        <v>41.37778421652317</v>
+        <v>40.92942799321811</v>
       </c>
       <c r="E46">
-        <v>0.001593894417782468</v>
+        <v>0.001055640683032525</v>
       </c>
     </row>
     <row r="47">
@@ -1154,16 +1154,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.7621424227952958</v>
+        <v>0.7657636364301046</v>
       </c>
       <c r="C47">
-        <v>0.03180089692566678</v>
+        <v>0.08728264351295863</v>
       </c>
       <c r="D47">
-        <v>41.4973575772047</v>
+        <v>41.0612363635699</v>
       </c>
       <c r="E47">
-        <v>-0.000512255693863381</v>
+        <v>-0.0008384094846908077</v>
       </c>
     </row>
     <row r="48">
@@ -1171,16 +1171,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.6671359419822693</v>
+        <v>0.6629883309205373</v>
       </c>
       <c r="C48">
-        <v>0.1918007378482766</v>
+        <v>0.1023832484699511</v>
       </c>
       <c r="D48">
-        <v>41.59236405801773</v>
+        <v>41.16401166907946</v>
       </c>
       <c r="E48">
-        <v>-0.003349935214695044</v>
+        <v>-0.002217152949167432</v>
       </c>
     </row>
     <row r="49">
@@ -1188,16 +1188,16 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.153678092360497</v>
+        <v>1.167380617062251</v>
       </c>
       <c r="C49">
-        <v>0.001536297315068371</v>
+        <v>0.00116524051468669</v>
       </c>
       <c r="D49">
-        <v>41.1058219076395</v>
+        <v>40.65961938293775</v>
       </c>
       <c r="E49">
-        <v>-0.0005611349176375677</v>
+        <v>-0.0004642102875032985</v>
       </c>
     </row>
     <row r="50">
@@ -1205,16 +1205,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1.121065178513527</v>
+        <v>1.139865384499232</v>
       </c>
       <c r="C50">
-        <v>0.00395839336434264</v>
+        <v>0.001204671441622143</v>
       </c>
       <c r="D50">
-        <v>41.13843482148647</v>
+        <v>40.68713461550077</v>
       </c>
       <c r="E50">
-        <v>-0.0007579414205071375</v>
+        <v>-0.0004138343199584984</v>
       </c>
     </row>
     <row r="51">
@@ -1222,16 +1222,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1.400967985391617</v>
+        <v>1.398244214057922</v>
       </c>
       <c r="C51">
-        <v>0.004539711055550107</v>
+        <v>0.008208043695615522</v>
       </c>
       <c r="D51">
-        <v>40.85853201460839</v>
+        <v>40.42875578594208</v>
       </c>
       <c r="E51">
-        <v>0.001737701080851728</v>
+        <v>0.002192188245569026</v>
       </c>
     </row>
     <row r="52">
@@ -1239,16 +1239,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.6946853339672089</v>
+        <v>0.697079873085022</v>
       </c>
       <c r="C52">
-        <v>0.6409601932006472</v>
+        <v>0.5033907663877835</v>
       </c>
       <c r="D52">
-        <v>41.56481466603279</v>
+        <v>41.12992012691497</v>
       </c>
       <c r="E52">
-        <v>-0.002996477929047829</v>
+        <v>-0.002319419308896556</v>
       </c>
     </row>
     <row r="53">
@@ -1256,16 +1256,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1.11946074962616</v>
+        <v>1.124858315785726</v>
       </c>
       <c r="C53">
-        <v>0.005388963560184066</v>
+        <v>0.001826143583864619</v>
       </c>
       <c r="D53">
-        <v>41.14003925037384</v>
+        <v>40.70214168421428</v>
       </c>
       <c r="E53">
-        <v>0.0006583362686485827</v>
+        <v>-0.000391114723900212</v>
       </c>
     </row>
     <row r="54">
@@ -1273,16 +1273,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.8298488020896911</v>
+        <v>0.8334746201833089</v>
       </c>
       <c r="C54">
-        <v>0.1945747383978897</v>
+        <v>0.1849956355506077</v>
       </c>
       <c r="D54">
-        <v>41.42965119791031</v>
+        <v>40.99352537981669</v>
       </c>
       <c r="E54">
-        <v>-0.0008011839163878001</v>
+        <v>-0.0007761423829141608</v>
       </c>
     </row>
     <row r="55">
@@ -1290,16 +1290,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1.236579132080078</v>
+        <v>1.206003789107005</v>
       </c>
       <c r="C55">
-        <v>0.006429319323183034</v>
+        <v>0.001000423696943842</v>
       </c>
       <c r="D55">
-        <v>41.02292086791992</v>
+        <v>40.620996210893</v>
       </c>
       <c r="E55">
-        <v>-0.001317573948309873</v>
+        <v>-0.0004986197523180161</v>
       </c>
     </row>
     <row r="56">
@@ -1307,16 +1307,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1.589078390598297</v>
+        <v>1.605998082955678</v>
       </c>
       <c r="C56">
-        <v>0.009811436693418095</v>
+        <v>0.02123143394804965</v>
       </c>
       <c r="D56">
-        <v>40.6704216094017</v>
+        <v>40.22100191704432</v>
       </c>
       <c r="E56">
-        <v>-0.001639262745603745</v>
+        <v>-0.002235543498236139</v>
       </c>
     </row>
     <row r="57">
@@ -1324,16 +1324,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.8149561703205108</v>
+        <v>0.8067047576109568</v>
       </c>
       <c r="C57">
-        <v>0.1616798816811659</v>
+        <v>0.06453349261252962</v>
       </c>
       <c r="D57">
-        <v>41.44454382967949</v>
+        <v>41.02029524238904</v>
       </c>
       <c r="E57">
-        <v>-0.00149858089136542</v>
+        <v>-0.0009581459192825261</v>
       </c>
     </row>
     <row r="58">
@@ -1341,16 +1341,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2.565540027618408</v>
+        <v>2.602393730481466</v>
       </c>
       <c r="C58">
-        <v>0.009089137041641248</v>
+        <v>0.01438130559892476</v>
       </c>
       <c r="D58">
-        <v>39.69395997238159</v>
+        <v>39.22460626951853</v>
       </c>
       <c r="E58">
-        <v>-0.003297767089137212</v>
+        <v>-0.003804765224256162</v>
       </c>
     </row>
     <row r="59">
@@ -1358,16 +1358,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>3.130016565322876</v>
+        <v>3.126204029719035</v>
       </c>
       <c r="C59">
-        <v>0.06674974506274003</v>
+        <v>0.03921008967196177</v>
       </c>
       <c r="D59">
-        <v>39.12948343467713</v>
+        <v>38.70079597028096</v>
       </c>
       <c r="E59">
-        <v>-0.002993250078759647</v>
+        <v>-0.002256296963576044</v>
       </c>
     </row>
     <row r="60">
@@ -1375,16 +1375,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2.161071026325226</v>
+        <v>2.165235169728597</v>
       </c>
       <c r="C60">
-        <v>0.09444172156086171</v>
+        <v>0.1304120721488709</v>
       </c>
       <c r="D60">
-        <v>40.09842897367477</v>
+        <v>39.6617648302714</v>
       </c>
       <c r="E60">
-        <v>-0.005287298508663177</v>
+        <v>-0.005566339370157958</v>
       </c>
     </row>
     <row r="61">
@@ -1392,16 +1392,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.9948663085699082</v>
+        <v>0.996894774834315</v>
       </c>
       <c r="C61">
-        <v>0.1793653818664362</v>
+        <v>0.1730613121725899</v>
       </c>
       <c r="D61">
-        <v>41.26463369143009</v>
+        <v>40.83010522516568</v>
       </c>
       <c r="E61">
-        <v>-0.001044581784793571</v>
+        <v>-0.0009452124877498204</v>
       </c>
     </row>
     <row r="62">
@@ -1409,16 +1409,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.03252962231636</v>
+        <v>1.030063897371292</v>
       </c>
       <c r="C62">
-        <v>4.279253071636469e-05</v>
+        <v>0.000238257478660284</v>
       </c>
       <c r="D62">
-        <v>41.22697037768364</v>
+        <v>40.79693610262871</v>
       </c>
       <c r="E62">
-        <v>-0.0001091129474253826</v>
+        <v>0.0002322888280282254</v>
       </c>
     </row>
     <row r="63">
@@ -1426,16 +1426,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.9340813308954239</v>
+        <v>0.9513428032398223</v>
       </c>
       <c r="C63">
-        <v>0.005664549387000737</v>
+        <v>0.001396721558484164</v>
       </c>
       <c r="D63">
-        <v>41.32541866910458</v>
+        <v>40.87565719676018</v>
       </c>
       <c r="E63">
-        <v>0.001183668780421094</v>
+        <v>0.0005428981259428527</v>
       </c>
     </row>
     <row r="64">
@@ -1443,16 +1443,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1.03180747628212</v>
+        <v>1.046973516543706</v>
       </c>
       <c r="C64">
-        <v>0.0005606264450627547</v>
+        <v>0.00142249575083828</v>
       </c>
       <c r="D64">
-        <v>41.22769252371788</v>
+        <v>40.7800264834563</v>
       </c>
       <c r="E64">
-        <v>0.0002018925767059861</v>
+        <v>-0.0003128478738529467</v>
       </c>
     </row>
     <row r="65">
@@ -1460,16 +1460,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.4069106131792068</v>
+        <v>0.4047761738300323</v>
       </c>
       <c r="C65">
-        <v>0.2933659412265735</v>
+        <v>0.2223085189144914</v>
       </c>
       <c r="D65">
-        <v>41.8525893868208</v>
+        <v>41.42222382616997</v>
       </c>
       <c r="E65">
-        <v>-0.0007978210971992814</v>
+        <v>-0.0006705791069908347</v>
       </c>
     </row>
   </sheetData>
